--- a/output/kruskal_wallis_test/anova_Q18_Idade.xlsx
+++ b/output/kruskal_wallis_test/anova_Q18_Idade.xlsx
@@ -365,13 +365,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6.32741816912426</v>
+        <v>9.55083732168747</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
       </c>
       <c r="C2" t="n">
-        <v>0.175994453143921</v>
+        <v>0.0487130697758092</v>
       </c>
     </row>
   </sheetData>
